--- a/tests/Tests.xlsx
+++ b/tests/Tests.xlsx
@@ -6,7 +6,7 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
